--- a/data-raw/gregory.cotton.xlsx
+++ b/data-raw/gregory.cotton.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drop\rpack\agridat\data-raw\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54A96FC8-E87E-45A8-A3EF-C582AC3F9D4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="12" windowWidth="15168" windowHeight="6468"/>
+    <workbookView xWindow="41985" yWindow="3975" windowWidth="11385" windowHeight="12195" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -81,7 +87,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -123,14 +129,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -168,7 +177,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -240,7 +249,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -413,23 +422,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="5" customWidth="1"/>
-    <col min="3" max="3" width="4.77734375" customWidth="1"/>
-    <col min="4" max="4" width="5.5546875" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" customWidth="1"/>
-    <col min="6" max="6" width="7.21875" customWidth="1"/>
+    <col min="3" max="3" width="4.81640625" customWidth="1"/>
+    <col min="4" max="4" width="5.54296875" customWidth="1"/>
+    <col min="5" max="5" width="7.36328125" customWidth="1"/>
+    <col min="6" max="6" width="7.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -449,7 +458,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>99</v>
       </c>
@@ -469,7 +478,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>134</v>
       </c>
@@ -489,7 +498,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>126</v>
       </c>
@@ -509,7 +518,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>144</v>
       </c>
@@ -529,7 +538,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>140</v>
       </c>
@@ -549,7 +558,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>136</v>
       </c>
@@ -569,7 +578,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>123</v>
       </c>
@@ -589,7 +598,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>128</v>
       </c>
@@ -609,7 +618,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>156</v>
       </c>
@@ -629,7 +638,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>164</v>
       </c>
@@ -649,7 +658,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>172</v>
       </c>
@@ -669,7 +678,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>180</v>
       </c>
@@ -689,7 +698,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>179</v>
       </c>
@@ -709,7 +718,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>212</v>
       </c>
@@ -729,7 +738,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>192</v>
       </c>
@@ -749,7 +758,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>185</v>
       </c>
@@ -769,7 +778,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>206</v>
       </c>
@@ -789,7 +798,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>210</v>
       </c>
@@ -809,7 +818,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>196</v>
       </c>
@@ -829,7 +838,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>185</v>
       </c>
@@ -849,7 +858,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>140</v>
       </c>
@@ -869,7 +878,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>182</v>
       </c>
@@ -889,7 +898,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>189</v>
       </c>
@@ -909,7 +918,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>183</v>
       </c>
@@ -929,7 +938,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>198</v>
       </c>
@@ -949,7 +958,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>182</v>
       </c>
@@ -969,7 +978,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>163</v>
       </c>
@@ -989,7 +998,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>151</v>
       </c>
@@ -1009,7 +1018,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>130</v>
       </c>
@@ -1029,7 +1038,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>116</v>
       </c>
@@ -1049,7 +1058,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>160</v>
       </c>
@@ -1069,7 +1078,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>161</v>
       </c>
@@ -1089,7 +1098,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>116</v>
       </c>
@@ -1109,7 +1118,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>183</v>
       </c>
@@ -1129,7 +1138,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>141</v>
       </c>
@@ -1149,7 +1158,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>127</v>
       </c>
@@ -1169,7 +1178,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>215</v>
       </c>
@@ -1189,7 +1198,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>214</v>
       </c>
@@ -1209,7 +1218,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>213</v>
       </c>
@@ -1229,7 +1238,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>301</v>
       </c>
@@ -1249,7 +1258,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>287</v>
       </c>
@@ -1269,7 +1278,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>271</v>
       </c>
@@ -1289,7 +1298,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>333</v>
       </c>
@@ -1309,7 +1318,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>336</v>
       </c>
@@ -1329,7 +1338,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>326</v>
       </c>
@@ -1349,7 +1358,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>275</v>
       </c>
@@ -1369,7 +1378,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>265</v>
       </c>
@@ -1389,7 +1398,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>254</v>
       </c>
@@ -1409,7 +1418,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>319</v>
       </c>
@@ -1429,7 +1438,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>308</v>
       </c>
@@ -1449,7 +1458,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>309</v>
       </c>
@@ -1469,7 +1478,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>358</v>
       </c>
@@ -1489,7 +1498,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>323</v>
       </c>
@@ -1509,7 +1518,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>356</v>
       </c>
@@ -1529,7 +1538,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>279</v>
       </c>
@@ -1549,7 +1558,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>235</v>
       </c>
@@ -1569,7 +1578,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>194</v>
       </c>
@@ -1589,7 +1598,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>348</v>
       </c>
@@ -1609,7 +1618,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>257</v>
       </c>
@@ -1629,7 +1638,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>227</v>
       </c>
@@ -1649,7 +1658,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>349</v>
       </c>
@@ -1669,7 +1678,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>300</v>
       </c>
@@ -1689,7 +1698,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>209</v>
       </c>
@@ -1709,7 +1718,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>199</v>
       </c>
@@ -1729,7 +1738,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>136</v>
       </c>
@@ -1749,7 +1758,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>113</v>
       </c>
@@ -1769,7 +1778,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>227</v>
       </c>
@@ -1789,7 +1798,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>181</v>
       </c>
@@ -1809,7 +1818,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>139</v>
       </c>
@@ -1829,7 +1838,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>243</v>
       </c>
@@ -1849,7 +1858,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>191</v>
       </c>
@@ -1869,7 +1878,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>133</v>
       </c>
@@ -1889,7 +1898,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>83</v>
       </c>
@@ -1909,7 +1918,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>98</v>
       </c>
@@ -1929,7 +1938,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>93</v>
       </c>
@@ -1949,7 +1958,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>92</v>
       </c>
@@ -1969,7 +1978,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>113</v>
       </c>
@@ -1989,7 +1998,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>106</v>
       </c>
@@ -2009,7 +2018,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>94</v>
       </c>
@@ -2029,7 +2038,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>102</v>
       </c>
@@ -2049,7 +2058,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>110</v>
       </c>
@@ -2069,7 +2078,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>90</v>
       </c>
@@ -2089,7 +2098,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>108</v>
       </c>
@@ -2109,7 +2118,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>106</v>
       </c>
@@ -2129,7 +2138,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>120</v>
       </c>
@@ -2149,7 +2158,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>109</v>
       </c>
@@ -2169,7 +2178,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>117</v>
       </c>
@@ -2189,7 +2198,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>108</v>
       </c>
@@ -2209,7 +2218,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>110</v>
       </c>
@@ -2229,7 +2238,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>108</v>
       </c>
@@ -2249,7 +2258,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>95</v>
       </c>
@@ -2269,7 +2278,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>99</v>
       </c>
@@ -2289,7 +2298,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>91</v>
       </c>
@@ -2309,7 +2318,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>97</v>
       </c>
@@ -2329,7 +2338,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>121</v>
       </c>
@@ -2349,7 +2358,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>118</v>
       </c>
@@ -2369,7 +2378,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>110</v>
       </c>
@@ -2389,7 +2398,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>101</v>
       </c>
@@ -2409,7 +2418,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>90</v>
       </c>
@@ -2429,7 +2438,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>87</v>
       </c>
@@ -2449,7 +2458,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>90</v>
       </c>
@@ -2469,7 +2478,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>77</v>
       </c>
@@ -2489,7 +2498,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>108</v>
       </c>
@@ -2509,7 +2518,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>85</v>
       </c>
@@ -2529,7 +2538,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>70</v>
       </c>
@@ -2549,7 +2558,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>96</v>
       </c>
@@ -2569,7 +2578,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>77</v>
       </c>
@@ -2589,7 +2598,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>67</v>
       </c>
@@ -2609,7 +2618,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>177</v>
       </c>
@@ -2629,7 +2638,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>173</v>
       </c>
@@ -2649,7 +2658,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>140</v>
       </c>
@@ -2669,7 +2678,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>176</v>
       </c>
@@ -2689,7 +2698,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>204</v>
       </c>
@@ -2709,7 +2718,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>177</v>
       </c>
@@ -2729,7 +2738,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>205</v>
       </c>
@@ -2749,7 +2758,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>194</v>
       </c>
@@ -2769,7 +2778,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>190</v>
       </c>
@@ -2789,7 +2798,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>171</v>
       </c>
@@ -2809,7 +2818,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>186</v>
       </c>
@@ -2829,7 +2838,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>179</v>
       </c>
@@ -2849,7 +2858,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>232</v>
       </c>
@@ -2869,7 +2878,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>214</v>
       </c>
@@ -2889,7 +2898,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>203</v>
       </c>
@@ -2909,7 +2918,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>250</v>
       </c>
@@ -2929,7 +2938,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>238</v>
       </c>
@@ -2949,7 +2958,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>207</v>
       </c>
@@ -2969,7 +2978,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>157</v>
       </c>
@@ -2989,7 +2998,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>163</v>
       </c>
@@ -3009,7 +3018,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>123</v>
       </c>
@@ -3029,7 +3038,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>204</v>
       </c>
@@ -3049,7 +3058,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>195</v>
       </c>
@@ -3069,7 +3078,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>163</v>
       </c>
@@ -3089,7 +3098,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>248</v>
       </c>
@@ -3109,7 +3118,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>199</v>
       </c>
@@ -3129,7 +3138,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>146</v>
       </c>
@@ -3149,7 +3158,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>121</v>
       </c>
@@ -3169,7 +3178,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>114</v>
       </c>
@@ -3189,7 +3198,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>102</v>
       </c>
@@ -3209,7 +3218,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>147</v>
       </c>
@@ -3229,7 +3238,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>125</v>
       </c>
@@ -3249,7 +3258,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>93</v>
       </c>
@@ -3269,7 +3278,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>152</v>
       </c>
@@ -3289,7 +3298,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>121</v>
       </c>
@@ -3309,7 +3318,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>92</v>
       </c>
@@ -3335,24 +3344,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
